--- a/INTLINE/data/134/DEUSTATIS/National accounts - Gross value added years.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - Gross value added years.xlsx
@@ -202,7 +202,7 @@
     <t>Manufacturing is part of "Industry, excluding construction".</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-03-31 / 11:34:22</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:39:54</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1388,7 @@
         <v>24.762</v>
       </c>
       <c r="AH6" t="n" s="10">
-        <v>28.575</v>
+        <v>29.592</v>
       </c>
     </row>
     <row r="7">
@@ -1489,7 +1489,7 @@
         <v>715.829</v>
       </c>
       <c r="AH7" t="n" s="10">
-        <v>758.224</v>
+        <v>757.466</v>
       </c>
     </row>
     <row r="8">
@@ -1590,7 +1590,7 @@
         <v>611.888</v>
       </c>
       <c r="AH8" t="n" s="10">
-        <v>652.935</v>
+        <v>652.159</v>
       </c>
     </row>
     <row r="9">
@@ -1691,7 +1691,7 @@
         <v>177.643</v>
       </c>
       <c r="AH9" t="n" s="10">
-        <v>191.93</v>
+        <v>189.818</v>
       </c>
     </row>
     <row r="10">
@@ -1792,7 +1792,7 @@
         <v>479.546</v>
       </c>
       <c r="AH10" t="n" s="10">
-        <v>518.439</v>
+        <v>519.783</v>
       </c>
     </row>
     <row r="11">
@@ -1893,7 +1893,7 @@
         <v>153.349</v>
       </c>
       <c r="AH11" t="n" s="10">
-        <v>161.834</v>
+        <v>161.259</v>
       </c>
     </row>
     <row r="12">
@@ -1994,7 +1994,7 @@
         <v>121.815</v>
       </c>
       <c r="AH12" t="n" s="10">
-        <v>122.125</v>
+        <v>122.085</v>
       </c>
     </row>
     <row r="13">
@@ -2095,7 +2095,7 @@
         <v>336.743</v>
       </c>
       <c r="AH13" t="n" s="10">
-        <v>346.255</v>
+        <v>346.171</v>
       </c>
     </row>
     <row r="14">
@@ -2196,7 +2196,7 @@
         <v>337.134</v>
       </c>
       <c r="AH14" t="n" s="10">
-        <v>366.761</v>
+        <v>366.116</v>
       </c>
     </row>
     <row r="15">
@@ -2297,7 +2297,7 @@
         <v>592.478</v>
       </c>
       <c r="AH15" t="n" s="10">
-        <v>620.216</v>
+        <v>619.527</v>
       </c>
     </row>
     <row r="16">
@@ -2398,7 +2398,7 @@
         <v>111.023</v>
       </c>
       <c r="AH16" t="n" s="10">
-        <v>114.586</v>
+        <v>114.522</v>
       </c>
     </row>
     <row r="17">
@@ -2499,7 +2499,7 @@
         <v>3050.322</v>
       </c>
       <c r="AH17" t="n" s="10">
-        <v>3228.945</v>
+        <v>3226.339</v>
       </c>
     </row>
     <row r="18" ht="50.6" customHeight="true">
@@ -2608,7 +2608,7 @@
         <v>99.45</v>
       </c>
       <c r="AH19" t="n" s="10">
-        <v>97.84</v>
+        <v>100.93</v>
       </c>
     </row>
     <row r="20">
@@ -2709,7 +2709,7 @@
         <v>97.95</v>
       </c>
       <c r="AH20" t="n" s="10">
-        <v>101.96</v>
+        <v>101.94</v>
       </c>
     </row>
     <row r="21">
@@ -2810,7 +2810,7 @@
         <v>96.32</v>
       </c>
       <c r="AH21" t="n" s="10">
-        <v>100.83</v>
+        <v>100.79</v>
       </c>
     </row>
     <row r="22">
@@ -2911,7 +2911,7 @@
         <v>108.15</v>
       </c>
       <c r="AH22" t="n" s="10">
-        <v>107.58</v>
+        <v>106.3</v>
       </c>
     </row>
     <row r="23">
@@ -3012,7 +3012,7 @@
         <v>103.46</v>
       </c>
       <c r="AH23" t="n" s="10">
-        <v>106.55</v>
+        <v>106.79</v>
       </c>
     </row>
     <row r="24">
@@ -3113,7 +3113,7 @@
         <v>119.5</v>
       </c>
       <c r="AH24" t="n" s="10">
-        <v>123.56</v>
+        <v>123.32</v>
       </c>
     </row>
     <row r="25">
@@ -3214,7 +3214,7 @@
         <v>95.81</v>
       </c>
       <c r="AH25" t="n" s="10">
-        <v>95.48</v>
+        <v>95.41</v>
       </c>
     </row>
     <row r="26">
@@ -3315,7 +3315,7 @@
         <v>102.27</v>
       </c>
       <c r="AH26" t="n" s="10">
-        <v>103.22</v>
+        <v>103.21</v>
       </c>
     </row>
     <row r="27">
@@ -3416,7 +3416,7 @@
         <v>102.5</v>
       </c>
       <c r="AH27" t="n" s="10">
-        <v>108.23</v>
+        <v>108.09</v>
       </c>
     </row>
     <row r="28">
@@ -3517,7 +3517,7 @@
         <v>103.53</v>
       </c>
       <c r="AH28" t="n" s="10">
-        <v>106.88</v>
+        <v>106.73</v>
       </c>
     </row>
     <row r="29">
@@ -3618,7 +3618,7 @@
         <v>92.52</v>
       </c>
       <c r="AH29" t="n" s="10">
-        <v>93.36</v>
+        <v>93.29</v>
       </c>
     </row>
     <row r="30">
@@ -3719,7 +3719,7 @@
         <v>102.1</v>
       </c>
       <c r="AH30" t="n" s="10">
-        <v>105.09</v>
+        <v>105.02</v>
       </c>
     </row>
     <row r="31" ht="50.6" customHeight="true">
@@ -3828,7 +3828,7 @@
         <v>20.606</v>
       </c>
       <c r="AH32" t="n" s="10">
-        <v>20.272</v>
+        <v>20.913</v>
       </c>
     </row>
     <row r="33">
@@ -3929,7 +3929,7 @@
         <v>681.227</v>
       </c>
       <c r="AH33" t="n" s="10">
-        <v>709.115</v>
+        <v>708.976</v>
       </c>
     </row>
     <row r="34">
@@ -4030,7 +4030,7 @@
         <v>593.104</v>
       </c>
       <c r="AH34" t="n" s="10">
-        <v>620.875</v>
+        <v>620.629</v>
       </c>
     </row>
     <row r="35">
@@ -4131,7 +4131,7 @@
         <v>135.087</v>
       </c>
       <c r="AH35" t="n" s="10">
-        <v>134.375</v>
+        <v>132.776</v>
       </c>
     </row>
     <row r="36">
@@ -4232,7 +4232,7 @@
         <v>445.229</v>
       </c>
       <c r="AH36" t="n" s="10">
-        <v>458.526</v>
+        <v>459.559</v>
       </c>
     </row>
     <row r="37">
@@ -4333,7 +4333,7 @@
         <v>150.638</v>
       </c>
       <c r="AH37" t="n" s="10">
-        <v>155.756</v>
+        <v>155.453</v>
       </c>
     </row>
     <row r="38">
@@ -4434,7 +4434,7 @@
         <v>114.807</v>
       </c>
       <c r="AH38" t="n" s="10">
-        <v>114.412</v>
+        <v>114.328</v>
       </c>
     </row>
     <row r="39">
@@ -4535,7 +4535,7 @@
         <v>306.08</v>
       </c>
       <c r="AH39" t="n" s="10">
-        <v>308.923</v>
+        <v>308.893</v>
       </c>
     </row>
     <row r="40">
@@ -4636,7 +4636,7 @@
         <v>314.525</v>
       </c>
       <c r="AH40" t="n" s="10">
-        <v>332.108</v>
+        <v>331.678</v>
       </c>
     </row>
     <row r="41">
@@ -4737,7 +4737,7 @@
         <v>507.658</v>
       </c>
       <c r="AH41" t="n" s="10">
-        <v>524.085</v>
+        <v>523.349</v>
       </c>
     </row>
     <row r="42">
@@ -4838,7 +4838,7 @@
         <v>100.103</v>
       </c>
       <c r="AH42" t="n" s="10">
-        <v>101.012</v>
+        <v>100.936</v>
       </c>
     </row>
     <row r="43">
@@ -4939,7 +4939,7 @@
         <v>2779.182</v>
       </c>
       <c r="AH43" t="n" s="10">
-        <v>2860.571</v>
+        <v>2858.665</v>
       </c>
     </row>
     <row r="44" ht="50.6" customHeight="true">
@@ -5048,7 +5048,7 @@
         <v>27.514</v>
       </c>
       <c r="AH45" t="n" s="10">
-        <v>24.362</v>
+        <v>25.131</v>
       </c>
     </row>
     <row r="46">
@@ -5149,7 +5149,7 @@
         <v>705.375</v>
       </c>
       <c r="AH46" t="n" s="10">
-        <v>745.124</v>
+        <v>744.97</v>
       </c>
     </row>
     <row r="47">
@@ -5250,7 +5250,7 @@
         <v>607.513</v>
       </c>
       <c r="AH47" t="n" s="10">
-        <v>640.535</v>
+        <v>640.311</v>
       </c>
     </row>
     <row r="48">
@@ -5351,7 +5351,7 @@
         <v>166.592</v>
       </c>
       <c r="AH48" t="n" s="10">
-        <v>176.718</v>
+        <v>174.608</v>
       </c>
     </row>
     <row r="49">
@@ -5452,7 +5452,7 @@
         <v>475.17</v>
       </c>
       <c r="AH49" t="n" s="10">
-        <v>493.87</v>
+        <v>494.971</v>
       </c>
     </row>
     <row r="50">
@@ -5553,7 +5553,7 @@
         <v>150.17</v>
       </c>
       <c r="AH50" t="n" s="10">
-        <v>158.555</v>
+        <v>158.242</v>
       </c>
     </row>
     <row r="51">
@@ -5654,7 +5654,7 @@
         <v>122.05</v>
       </c>
       <c r="AH51" t="n" s="10">
-        <v>121.392</v>
+        <v>121.308</v>
       </c>
     </row>
     <row r="52">
@@ -5755,7 +5755,7 @@
         <v>327.782</v>
       </c>
       <c r="AH52" t="n" s="10">
-        <v>339.869</v>
+        <v>339.848</v>
       </c>
     </row>
     <row r="53">
@@ -5856,7 +5856,7 @@
         <v>332.017</v>
       </c>
       <c r="AH53" t="n" s="10">
-        <v>355.968</v>
+        <v>355.506</v>
       </c>
     </row>
     <row r="54">
@@ -5957,7 +5957,7 @@
         <v>564.448</v>
       </c>
       <c r="AH54" t="n" s="10">
-        <v>611.648</v>
+        <v>610.827</v>
       </c>
     </row>
     <row r="55">
@@ -6058,7 +6058,7 @@
         <v>107.715</v>
       </c>
       <c r="AH55" t="n" s="10">
-        <v>112.023</v>
+        <v>111.938</v>
       </c>
     </row>
     <row r="56">
@@ -6159,7 +6159,7 @@
         <v>2978.833</v>
       </c>
       <c r="AH56" t="n" s="10">
-        <v>3139.529</v>
+        <v>3137.349</v>
       </c>
     </row>
     <row r="57">
@@ -6215,7 +6215,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 31.03.22 / 11:34:25&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:39:58&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/National accounts - Gross value added years.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - Gross value added years.xlsx
@@ -202,7 +202,7 @@
     <t>Manufacturing is part of "Industry, excluding construction".</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:39:54</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 05:31:25</t>
   </si>
 </sst>
 </file>
@@ -6215,7 +6215,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:39:58&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 05:31:28&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>